--- a/program/results/result_v040_lin_square_exp/T3500_25_digital/t_bias.xlsx
+++ b/program/results/result_v040_lin_square_exp/T3500_25_digital/t_bias.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,369 +423,669 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="P1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Q1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="R1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="S1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="T1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="U1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="V1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="W1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="X1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Y1" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="T5" t="n">
         <v>-0.185375473686567</v>
@@ -804,59 +1104,134 @@
       </c>
       <c r="Y5" t="n">
         <v>-0.4734627212994896</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.4842653576818887</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.3490190174784662</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.2720679649623283</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.185375473686567</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.6547204829470233</v>
+        <v>-0.1492055471115458</v>
       </c>
       <c r="R6" t="n">
         <v>-0.2908797899366712</v>
@@ -881,53 +1256,128 @@
       </c>
       <c r="Y6" t="n">
         <v>-0.7702975461645375</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.7702975461645375</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.7513075143863945</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.7182228534705847</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.671259410040164</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.5212736749074515</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.4179310774138563</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.2908797899366712</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.6563147856151655</v>
+        <v>-0.1407362796056895</v>
       </c>
       <c r="P7" t="n">
         <v>-0.3130905119554916</v>
@@ -958,47 +1408,122 @@
       </c>
       <c r="Y7" t="n">
         <v>-0.907802950348049</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.9100235644942605</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.907802950348049</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.8418713349510659</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.7914587743392344</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.3130905119554916</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.1407362796056895</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="N8" t="n">
         <v>-0.2546132153415982</v>
@@ -1035,44 +1560,119 @@
       </c>
       <c r="Y8" t="n">
         <v>-0.897962331339264</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.8943785539698111</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.900810065414679</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.9068842662667833</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.9166209209469034</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.9089685046792372</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.8842528268255683</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.8330851864038046</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.7443003204503615</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.6135085490620621</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.2546132153415982</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="M9" t="n">
         <v>-0.3401764539456918</v>
@@ -1112,41 +1712,116 @@
       </c>
       <c r="Y9" t="n">
         <v>-0.8260634521901635</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.8324241574040186</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.8428469428007778</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.8768531734073203</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.9164496903343962</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.8313015237419222</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.5472302641967375</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3401764539456918</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6547204829470233</v>
+        <v>-0.1492055471115458</v>
       </c>
       <c r="L10" t="n">
         <v>-0.387731169657335</v>
@@ -1189,38 +1864,113 @@
       </c>
       <c r="Y10" t="n">
         <v>-0.7619272415320568</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.7609152926771251</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.7619272415320568</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.7887610613803803</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.8072714899748734</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.8302736894007708</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.888385958572205</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.9121189183780072</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.9116686462447815</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.387731169657335</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.6547204829470233</v>
+        <v>-0.1492055471115458</v>
       </c>
       <c r="K11" t="n">
         <v>-0.4086715820093803</v>
@@ -1266,35 +2016,110 @@
       </c>
       <c r="Y11" t="n">
         <v>-0.7175167626168115</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.7175167626168115</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.7210933020420034</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.7273529262507417</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.736595781232981</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.7695572442795821</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.7932729599403834</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.8586975322696476</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.9172917862649081</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.8944341222523992</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.8105819761484058</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.6374295301244447</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="J12" t="n">
         <v>-0.387731169657335</v>
@@ -1339,36 +2164,111 @@
         <v>-0.6973205162648075</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.004478447951717153</v>
+        <v>-0.548219175280977</v>
       </c>
       <c r="Y12" t="n">
         <v>-0.6637277250313507</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.6650496838187477</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.6637277250313507</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.7030704721673939</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.7249089939661485</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.7427383513411401</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.7991554875141385</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.8386475986781161</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.8844007190782558</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.8168782437345924</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.6374295301244447</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.387731169657335</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="I13" t="n">
         <v>-0.3401764539456918</v>
@@ -1420,29 +2320,104 @@
       </c>
       <c r="Y13" t="n">
         <v>-0.6534070549925245</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.6541312563387175</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.6557896687560751</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.6637786655678138</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.7087059085544393</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.725912106271896</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.783366189581338</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.8753647132356728</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.8105819761484058</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.3401764539456918</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="H14" t="n">
         <v>-0.2546132153415982</v>
@@ -1497,29 +2472,104 @@
       </c>
       <c r="Y14" t="n">
         <v>-0.6525535199386104</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.6527613886883644</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-0.6521689271662368</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.651675818825513</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.6518164083303285</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-0.656537973033707</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-0.6629911887775467</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-0.6993795242678071</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-0.7408580809990173</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.8228330899261252</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-0.8753647132356728</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.8944341222523992</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>-0.5472302641967375</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>-0.2546132153415982</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.6563147856151655</v>
+        <v>-0.1407362796056895</v>
       </c>
       <c r="H15" t="n">
         <v>-0.4508817431700713</v>
@@ -1549,7 +2599,7 @@
         <v>-0.7114065754720846</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.04872159827706388</v>
+        <v>-0.6055137582006607</v>
       </c>
       <c r="R15" t="n">
         <v>-0.658803147924806</v>
@@ -1574,26 +2624,101 @@
       </c>
       <c r="Y15" t="n">
         <v>-0.6025641025640985</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.5999999999993836</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.6025641025640985</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.64203612479464</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.652466477880421</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.6517599992638226</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.6055137582006607</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.7381285869184808</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.8844007190782558</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.9172917862649081</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1407362796056895</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="G16" t="n">
         <v>-0.3130905119554916</v>
@@ -1623,7 +2748,7 @@
         <v>-0.7114065754720846</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.004478447951717153</v>
+        <v>-0.548219175280977</v>
       </c>
       <c r="Q16" t="n">
         <v>-0.6568814222188525</v>
@@ -1651,26 +2776,101 @@
       </c>
       <c r="Y16" t="n">
         <v>-0.5467904098932571</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.5467904098932571</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.5546055188495919</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-0.5680125441003528</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.5866719555730523</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0.6393442622950816</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.651947259047211</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-0.6522728537623746</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-0.6568814222188525</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.7408580809990173</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.783366189581338</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-0.8386475986781161</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-0.9116686462447815</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.8313015237419222</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>-0.6135085490620621</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>-0.3130905119554916</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6547204829470233</v>
+        <v>-0.1492055471115458</v>
       </c>
       <c r="G17" t="n">
         <v>-0.4734627212994896</v>
@@ -1697,7 +2897,7 @@
         <v>-0.7160662262760047</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.04872159827706388</v>
+        <v>-0.6055137582006607</v>
       </c>
       <c r="P17" t="n">
         <v>-0.6568814222188525</v>
@@ -1728,23 +2928,98 @@
       </c>
       <c r="Y17" t="n">
         <v>-0.4942099364960777</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.4914243102162506</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.4942099364960777</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.5163002274450266</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.535508637234597</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-0.5600624024960998</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0.5891934843067144</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>-0.6520098788373901</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-0.6568814222188525</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-0.6055137582006607</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-0.7991554875141385</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-0.8586975322696476</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-0.9121189183780072</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>-0.7443003204503615</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F18" t="n">
         <v>-0.2908797899366712</v>
@@ -1805,23 +3080,98 @@
       </c>
       <c r="Y18" t="n">
         <v>-0.4456089627755634</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.4424810674358312</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.4545454545454509</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.4689680499449137</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.4886490509862176</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.514004542013626</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.5785319652722964</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.6187778227438284</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.6522728537623746</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.6993795242678071</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.725912106271896</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.888385958572205</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.9164496903343962</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.8330851864038046</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.2908797899366712</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="F19" t="n">
         <v>-0.4179310774138563</v>
@@ -1882,20 +3232,95 @@
       </c>
       <c r="Y19" t="n">
         <v>-0.400070003500175</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.3966480446920356</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-0.4094432699083862</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.4245014245014198</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>-0.4716703458313565</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-0.5384615384615308</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-0.5785319652722964</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-0.651947259047211</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-0.6629911887775467</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.7087059085544393</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-0.7427383513411401</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-0.7932729599403834</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>-0.8842528268255683</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>-0.4179310774138563</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E20" t="n">
         <v>-0.185375473686567</v>
@@ -1959,20 +3384,95 @@
       </c>
       <c r="Y20" t="n">
         <v>-0.3573125212080078</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.3536379018612504</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-0.3573125212080078</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-0.3675213675213675</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-0.3840830449825191</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>-0.4064697608990664</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>-0.4336917562724014</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-0.4657383657017219</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>-0.5891934843067144</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>-0.6393442622950816</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-0.6517599992638226</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>-0.656537973033707</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.7249089939661485</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-0.7695572442795821</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>-0.8302736894007708</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>-0.9089685046792372</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>-0.7914587743392344</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>-0.5212736749074515</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>-0.185375473686567</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E21" t="n">
         <v>-0.2720679649623283</v>
@@ -2036,20 +3536,95 @@
       </c>
       <c r="Y21" t="n">
         <v>-0.3175230566534887</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-0.3175230566534887</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>-0.3289036544850488</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-0.3468013468013423</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-0.3708019191226857</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-0.4336917562724014</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-0.4716703458313565</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-0.514004542013626</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>-0.5600624024960998</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-0.652466477880421</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-0.6637786655678138</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>-0.8072714899748734</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>-0.8768531734073203</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>-0.9166209209469034</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>-0.8418713349510659</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>-0.2720679649623283</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E22" t="n">
         <v>-0.3490190174784662</v>
@@ -2113,20 +3688,95 @@
       </c>
       <c r="Y22" t="n">
         <v>-0.2090644694424333</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.2755102040816323</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.2090644694424333</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.2932428063368898</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.3395847287340925</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.3708019191226857</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-0.4064697608990664</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-0.4886490509862176</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.535508637234597</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-0.5866719555730523</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-0.64203612479464</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-0.6518164083303285</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-0.7030704721673939</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-0.736595781232981</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>-0.7887610613803803</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>-0.671259410040164</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>-0.3490190174784662</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E23" t="n">
         <v>-0.4086715820093803</v>
@@ -2190,20 +3840,95 @@
       </c>
       <c r="Y23" t="n">
         <v>-0.2449424214128074</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.239541369693212</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.2449424214128074</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.2610340479192938</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.2845215157353128</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.3468013468013423</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.3840830449825191</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.4245014245014198</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.4689680499449137</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.5163002274450266</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.5680125441003528</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.651675818825513</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.6557896687560751</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.7273529262507417</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.8428469428007778</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.9068842662667833</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.7182228534705847</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E24" t="n">
         <v>-0.4508817431700713</v>
@@ -2227,7 +3952,7 @@
         <v>-0.7210933020420034</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.004478447951717153</v>
+        <v>-0.548219175280977</v>
       </c>
       <c r="M24" t="n">
         <v>-0.6541312563387175</v>
@@ -2267,20 +3992,95 @@
       </c>
       <c r="Y24" t="n">
         <v>-0.2132241431604486</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.2055455093429777</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.2132241431604486</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-0.2334258402713408</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.2610340479192938</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.2932428063368898</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.3289036544850488</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-0.3675213675213675</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.4094432699083862</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-0.4545454545454509</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>-0.5546055188495919</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>-0.6521689271662368</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>-0.6541312563387175</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>-0.7210933020420034</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>-0.8324241574040186</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>-0.900810065414679</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>-0.7513075143863945</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6565305853062333</v>
+        <v>-0.1276013328937553</v>
       </c>
       <c r="E25" t="n">
         <v>-0.4734627212994896</v>
@@ -2344,6 +4144,3881 @@
       </c>
       <c r="Y25" t="n">
         <v>-0.1865915158706615</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-0.1733646230566148</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.1865915158706615</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-0.2132241431604486</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.2449424214128074</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>-0.2090644694424333</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>-0.3175230566534887</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>-0.3573125212080078</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>-0.4942099364960777</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>-0.5467904098932571</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-0.6025641025640985</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-0.6637277250313507</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-0.7175167626168115</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>-0.7619272415320568</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>-0.907802950348049</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>-0.7702975461645375</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.4842653576818887</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.9100235644942605</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.8943785539698111</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.7609152926771251</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.6650496838187477</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.6527613886883644</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.5999999999993836</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.4914243102162506</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.4424810674358312</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.3966480446920356</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.3536379018612504</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.2755102040816323</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-0.239541369693212</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-0.2055455093429777</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-0.1733646230566148</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-0.1428571428570771</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.1733646230566148</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.2055455093429777</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.239541369693212</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-0.2755102040816323</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>-0.3536379018612504</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-0.3966480446920356</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-0.4424810674358312</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>-0.4914243102162506</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>-0.5999999999993836</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>-0.6527613886883644</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-0.6650496838187477</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>-0.7609152926771251</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>-0.8943785539698111</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>-0.9100235644942605</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>-0.4842653576818887</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.7702975461645375</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.907802950348049</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.7619272415320568</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.7175167626168115</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.6637277250313507</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.6025641025640985</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.5467904098932571</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.4942099364960777</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.3573125212080078</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.3175230566534887</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.2090644694424333</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-0.2449424214128074</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.2132241431604486</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.1865915158706615</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.1733646230566148</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.1865915158706615</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-0.2132241431604486</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-0.2449424214128074</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-0.2090644694424333</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>-0.3175230566534887</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-0.3573125212080078</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>-0.4942099364960777</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>-0.5467904098932571</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-0.6025641025640985</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-0.6637277250313507</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-0.7175167626168115</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>-0.7619272415320568</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>-0.907802950348049</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>-0.7702975461645375</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.7513075143863945</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.900810065414679</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.8324241574040186</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.7210933020420034</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.6541312563387175</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.6521689271662368</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.5546055188495919</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.4545454545454509</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.4094432699083862</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.3675213675213675</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.3289036544850488</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.2932428063368898</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-0.2610340479192938</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-0.2334258402713408</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-0.2132241431604486</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-0.2055455093429777</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.2132241431604486</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>-0.2334258402713408</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.2610340479192938</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-0.2932428063368898</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>-0.3289036544850488</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>-0.3675213675213675</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-0.4094432699083862</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-0.4545454545454509</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>-0.5546055188495919</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>-0.6521689271662368</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>-0.6541312563387175</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>-0.7210933020420034</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>-0.8324241574040186</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>-0.900810065414679</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>-0.7513075143863945</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.7182228534705847</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.9068842662667833</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.8428469428007778</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.7273529262507417</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.6557896687560751</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.651675818825513</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.5680125441003528</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.5163002274450266</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.4689680499449137</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.4245014245014198</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.3840830449825191</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.3468013468013423</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-0.2845215157353128</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.2610340479192938</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-0.2449424214128074</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-0.239541369693212</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.2449424214128074</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-0.2610340479192938</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.2845215157353128</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.3468013468013423</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>-0.3840830449825191</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.4245014245014198</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-0.4689680499449137</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>-0.5163002274450266</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>-0.5680125441003528</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>-0.651675818825513</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>-0.6557896687560751</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>-0.7273529262507417</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>-0.8428469428007778</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>-0.9068842662667833</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>-0.7182228534705847</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.3490190174784662</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.671259410040164</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.7887610613803803</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.736595781232981</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.7030704721673939</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.6518164083303285</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.64203612479464</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.5866719555730523</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.535508637234597</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.4886490509862176</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.4064697608990664</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.3708019191226857</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.3395847287340925</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.2932428063368898</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.2090644694424333</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.2755102040816323</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-0.2090644694424333</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-0.2932428063368898</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-0.3395847287340925</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.3708019191226857</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>-0.4064697608990664</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-0.4886490509862176</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>-0.535508637234597</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-0.5866719555730523</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>-0.64203612479464</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-0.6518164083303285</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-0.7030704721673939</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>-0.736595781232981</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>-0.7887610613803803</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>-0.671259410040164</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>-0.3490190174784662</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.2720679649623283</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.8418713349510659</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.9166209209469034</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.8768531734073203</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.8072714899748734</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.6637786655678138</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.652466477880421</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.5600624024960998</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.514004542013626</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4716703458313565</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4336917562724014</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.3708019191226857</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.3468013468013423</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.3289036544850488</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.3175230566534887</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.3136288998357961</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.3175230566534887</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.3289036544850488</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.3468013468013423</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.3708019191226857</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4336917562724014</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4716703458313565</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.514004542013626</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.5600624024960998</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.652466477880421</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.6637786655678138</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.8072714899748734</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.8768531734073203</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.9166209209469034</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.8418713349510659</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.2720679649623283</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.185375473686567</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.5212736749074515</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.7914587743392344</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.9089685046792372</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.8302736894007708</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.7695572442795821</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.7249089939661485</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.656537973033707</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.6517599992638226</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.6393442622950816</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.5891934843067144</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-0.4657383657017219</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-0.4336917562724014</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-0.4064697608990664</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-0.3840830449825191</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.3675213675213675</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.3573125212080078</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.3536379018612504</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.3573125212080078</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.3675213675213675</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.3840830449825191</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.4064697608990664</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>-0.4336917562724014</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>-0.4657383657017219</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>-0.5891934843067144</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>-0.6393442622950816</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-0.6517599992638226</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-0.656537973033707</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-0.7249089939661485</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>-0.7695572442795821</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>-0.8302736894007708</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>-0.9089685046792372</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>-0.7914587743392344</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>-0.5212736749074515</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>-0.185375473686567</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.4179310774138563</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.8842528268255683</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.7932729599403834</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.7427383513411401</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.7087059085544393</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.6629911887775467</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.651947259047211</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.5785319652722964</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-0.5384615384615308</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.4716703458313565</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-0.4245014245014198</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-0.4094432699083862</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0.3966480446920356</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.400070003500175</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-0.4094432699083862</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.4245014245014198</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>-0.4716703458313565</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-0.5384615384615308</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-0.5785319652722964</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>-0.651947259047211</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>-0.6629911887775467</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>-0.7087059085544393</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>-0.7427383513411401</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>-0.7932729599403834</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>-0.8842528268255683</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>-0.4179310774138563</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.2908797899366712</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.8330851864038046</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.9164496903343962</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.888385958572205</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.725912106271896</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.6993795242678071</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.6522728537623746</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.6187778227438284</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.5785319652722964</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.514004542013626</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.4886490509862176</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.4689680499449137</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.4545454545454509</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.4424810674358312</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.4456089627755634</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.4545454545454509</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.4689680499449137</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.4886490509862176</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.514004542013626</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.5785319652722964</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.6187778227438284</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.6522728537623746</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.6993795242678071</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.725912106271896</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.888385958572205</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.9164496903343962</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8330851864038046</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.2908797899366712</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.7443003204503615</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.9121189183780072</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.8586975322696476</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.7991554875141385</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.6055137582006607</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.6568814222188525</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.6520098788373901</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-0.5891934843067144</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.5600624024960998</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.535508637234597</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-0.5163002274450266</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.4942099364960777</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.4914243102162506</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.4942099364960777</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.5026296018031555</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.5163002274450266</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-0.535508637234597</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-0.5600624024960998</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>-0.5891934843067144</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>-0.6520098788373901</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>-0.6568814222188525</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>-0.6055137582006607</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>-0.7991554875141385</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>-0.8586975322696476</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>-0.9121189183780072</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>-0.7443003204503615</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.3130905119554916</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.6135085490620621</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.8313015237419222</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.9116686462447815</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.8386475986781161</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.783366189581338</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.7408580809990173</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.6568814222188525</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.6522728537623746</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.651947259047211</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.6393442622950816</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-0.5866719555730523</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-0.5680125441003528</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.5546055188495919</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-0.5467904098932571</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.5438054805094558</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.5467904098932571</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-0.5546055188495919</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.5680125441003528</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-0.5866719555730523</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>-0.6393442622950816</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-0.651947259047211</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-0.6522728537623746</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>-0.6568814222188525</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>-0.7408580809990173</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>-0.783366189581338</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>-0.8386475986781161</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>-0.9116686462447815</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>-0.8313015237419222</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>-0.6135085490620621</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>-0.3130905119554916</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.1407362796056895</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.9172917862649081</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.8844007190782558</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.7381285869184808</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.6055137582006607</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-0.6517599992638226</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.652466477880421</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.64203612479464</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.6025641025640985</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0.5999999999993836</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-0.6025641025640985</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-0.6103059581320451</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-0.6240357287860289</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>-0.64203612479464</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>-0.652466477880421</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>-0.6517599992638226</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>-0.6055137582006607</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>-0.7381285869184808</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-0.8844007190782558</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>-0.9172917862649081</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>-0.1407362796056895</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.2546132153415982</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.5472302641967375</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.8944341222523992</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.8753647132356728</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.8228330899261252</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.7408580809990173</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.6993795242678071</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.6629911887775467</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.656537973033707</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.6518164083303285</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-0.651675818825513</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-0.6521689271662368</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-0.6527613886883644</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.6525535199386104</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-0.6521689271662368</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.651675818825513</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-0.6518164083303285</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-0.656537973033707</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-0.6629911887775467</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-0.6993795242678071</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>-0.7408580809990173</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-0.8228330899261252</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>-0.8753647132356728</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>-0.8944341222523992</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>-0.5472302641967375</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>-0.2546132153415982</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.3401764539456918</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.8105819761484058</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.8753647132356728</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.783366189581338</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.725912106271896</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.7087059085544393</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.6637786655678138</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-0.6557896687560751</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-0.6541312563387175</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-0.6531642219163438</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-0.6534070549925245</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>-0.6541312563387175</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-0.6557896687560751</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-0.658803147924806</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-0.6637786655678138</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-0.7087059085544393</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-0.725912106271896</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>-0.783366189581338</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>-0.8753647132356728</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>-0.8105819761484058</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>-0.3401764539456918</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.387731169657335</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.6374295301244447</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.8168782437345924</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.8844007190782558</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.8386475986781161</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.7991554875141385</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.7427383513411401</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.7249089939661485</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.7030704721673939</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-0.6637277250313507</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-0.6650496838187477</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-0.6637277250313507</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>-0.548219175280977</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-0.6973205162648075</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>-0.7030704721673939</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>-0.7114065754720846</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>-0.7249089939661485</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-0.7427383513411401</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>-0.7991554875141385</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>-0.8386475986781161</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>-0.8844007190782558</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>-0.8168782437345924</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>-0.6374295301244447</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>-0.387731169657335</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.6374295301244447</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.8105819761484058</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.8944341222523992</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.9172917862649081</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.8586975322696476</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.7932729599403834</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-0.7695572442795821</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.736595781232981</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-0.7273529262507417</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-0.7210933020420034</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-0.7175167626168115</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-0.7160662262760047</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-0.7175167626168115</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>-0.7210933020420034</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.7273529262507417</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-0.736595781232981</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-0.7503193444650219</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>-0.7695572442795821</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-0.7932729599403834</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>-0.8586975322696476</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>-0.9172917862649081</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>-0.8944341222523992</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>-0.8105819761484058</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>-0.6374295301244447</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.387731169657335</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-0.9116686462447815</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-0.9121189183780072</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.888385958572205</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-0.8302736894007708</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-0.8072714899748734</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-0.7887610613803803</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-0.7619272415320568</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-0.7609152926771251</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>-0.7619272415320568</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>-0.7671652390037674</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>-0.7763974953795822</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>-0.7887610613803803</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>-0.8072714899748734</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>-0.8302736894007708</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-0.888385958572205</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>-0.9121189183780072</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>-0.9116686462447815</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>-0.387731169657335</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.3401764539456918</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.5472302641967375</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.8313015237419222</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.9164496903343962</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-0.8768531734073203</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-0.8428469428007778</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-0.8324241574040186</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-0.82311237710396</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-0.8260634521901635</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>-0.8324241574040186</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>-0.8428469428007778</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-0.8575913615583582</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>-0.8768531734073203</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-0.9120039587115845</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-0.9164496903343962</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>-0.8313015237419222</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>-0.5472302641967375</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>-0.3401764539456918</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.2546132153415982</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.6135085490620621</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.7443003204503615</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.8330851864038046</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.8842528268255683</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.9089685046792372</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-0.9166209209469034</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-0.9068842662667833</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-0.900810065414679</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-0.8943785539698111</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>-0.897962331339264</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>-0.900810065414679</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-0.9068842662667833</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>-0.9126169277055061</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>-0.9166209209469034</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>-0.9089685046792372</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-0.8842528268255683</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-0.8330851864038046</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>-0.7443003204503615</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>-0.6135085490620621</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>-0.2546132153415982</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.1407362796056895</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.3130905119554916</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-0.7914587743392344</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-0.8418713349510659</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-0.907802950348049</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-0.9100235644942605</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>-0.907802950348049</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>-0.9044628660263745</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>-0.8935961115692855</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.876309011495027</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>-0.8418713349510659</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>-0.7914587743392344</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-0.7106301069877178</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>-0.3130905119554916</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>-0.1407362796056895</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.2908797899366712</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-0.4179310774138563</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-0.5212736749074515</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-0.671259410040164</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-0.7182228534705847</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-0.7513075143863945</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-0.7702975461645375</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-0.7747608951193727</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-0.7702975461645375</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-0.7513075143863945</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-0.7182228534705847</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-0.671259410040164</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-0.6089181948326223</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-0.5212736749074515</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-0.4179310774138563</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-0.2908797899366712</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-0.1492055471115458</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-0.185375473686567</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-0.2720679649623283</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.3490190174784662</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.4842653576818887</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-0.4734627212994896</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-0.4508817431700713</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-0.4086715820093803</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-0.3490190174784662</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-0.2720679649623283</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-0.185375473686567</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>-0.1276013328937553</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>-0.1276013328937553</v>
       </c>
     </row>
   </sheetData>
